--- a/data/stressor_magnitude_unc_ARTR.xlsx
+++ b/data/stressor_magnitude_unc_ARTR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A59340-D992-4ABD-B3B3-19EB804B3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A72578-F572-4007-B37A-75FBFC32F5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="natural_unc" sheetId="8" r:id="rId1"/>
@@ -885,8 +885,8 @@
   </sheetPr>
   <dimension ref="A1:J1973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1728" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1740" sqref="D1740"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53741,18 +53741,18 @@
         <v>350</v>
       </c>
       <c r="F1753" s="2">
-        <f>0.2*E1753</f>
+        <f t="shared" ref="F1753:F1762" si="0">0.2*E1753</f>
         <v>70</v>
       </c>
       <c r="G1753" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1753" s="2">
-        <f>E1753-1*F1753</f>
+        <f t="shared" ref="H1753:H1762" si="1">E1753-1*F1753</f>
         <v>280</v>
       </c>
       <c r="I1753" s="2">
-        <f>E1753+2*F1753</f>
+        <f t="shared" ref="I1753:I1762" si="2">E1753+2*F1753</f>
         <v>490</v>
       </c>
       <c r="J1753"/>
@@ -53774,18 +53774,18 @@
         <v>200</v>
       </c>
       <c r="F1754" s="2">
-        <f>0.2*E1754</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G1754" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1754" s="2">
-        <f>E1754-1*F1754</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="I1754" s="2">
-        <f>E1754+2*F1754</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="J1754"/>
@@ -53807,18 +53807,18 @@
         <v>300</v>
       </c>
       <c r="F1755" s="2">
-        <f>0.2*E1755</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G1755" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1755" s="2">
-        <f>E1755-1*F1755</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="I1755" s="2">
-        <f>E1755+2*F1755</f>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="J1755"/>
@@ -53840,18 +53840,18 @@
         <v>150</v>
       </c>
       <c r="F1756" s="2">
-        <f>0.2*E1756</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G1756" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1756" s="2">
-        <f>E1756-1*F1756</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="I1756" s="2">
-        <f>E1756+2*F1756</f>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="J1756"/>
@@ -53873,18 +53873,18 @@
         <v>150</v>
       </c>
       <c r="F1757" s="2">
-        <f>0.2*E1757</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G1757" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1757" s="2">
-        <f>E1757-1*F1757</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="I1757" s="2">
-        <f>E1757+2*F1757</f>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="J1757"/>
@@ -53906,18 +53906,18 @@
         <v>350</v>
       </c>
       <c r="F1758" s="2">
-        <f>0.2*E1758</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G1758" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1758" s="2">
-        <f>E1758-1*F1758</f>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="I1758" s="2">
-        <f>E1758+2*F1758</f>
+        <f t="shared" si="2"/>
         <v>490</v>
       </c>
       <c r="J1758"/>
@@ -53939,18 +53939,18 @@
         <v>200</v>
       </c>
       <c r="F1759" s="2">
-        <f>0.2*E1759</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G1759" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1759" s="2">
-        <f>E1759-1*F1759</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="I1759" s="2">
-        <f>E1759+2*F1759</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="J1759"/>
@@ -53972,18 +53972,18 @@
         <v>300</v>
       </c>
       <c r="F1760" s="2">
-        <f>0.2*E1760</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G1760" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1760" s="2">
-        <f>E1760-1*F1760</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="I1760" s="2">
-        <f>E1760+2*F1760</f>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="J1760"/>
@@ -54005,18 +54005,18 @@
         <v>150</v>
       </c>
       <c r="F1761" s="2">
-        <f>0.2*E1761</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G1761" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1761" s="2">
-        <f>E1761-1*F1761</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="I1761" s="2">
-        <f>E1761+2*F1761</f>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="J1761"/>
@@ -54038,18 +54038,18 @@
         <v>150</v>
       </c>
       <c r="F1762" s="2">
-        <f>0.2*E1762</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G1762" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1762" s="2">
-        <f>E1762-1*F1762</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="I1762" s="2">
-        <f>E1762+2*F1762</f>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="J1762"/>
